--- a/biology/Zoologie/Coucou_à_ailes_courtes/Coucou_à_ailes_courtes.xlsx
+++ b/biology/Zoologie/Coucou_à_ailes_courtes/Coucou_à_ailes_courtes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_ailes_courtes</t>
+          <t>Coucou_à_ailes_courtes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuculus micropterus
 Le Coucou à ailes courtes (Cuculus micropterus) est une espèce de coucou, oiseau de la famille des Cuculidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_ailes_courtes</t>
+          <t>Coucou_à_ailes_courtes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur le Sri Lanka, les Maldives, l’Inde, le Népal, le Bhoutan, le Bangladesh, la Birmanie, la Chine, la Russie, la Corée du Nord, la Corée du Sud, le Viêt Nam, le Cambodge, le Laos, la Thaïlande, la Malaisie, l’Indonésie et les Philippines. Il est rare au Pakistan et au Japon.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_ailes_courtes</t>
+          <t>Coucou_à_ailes_courtes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cuculus micropterus concretus S. Muller, 1845
 Cuculus micropterus micropterus Gould, 1838</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_ailes_courtes</t>
+          <t>Coucou_à_ailes_courtes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Chant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chant du coucou à ailes courtes</t>
         </is>
